--- a/exchange/output/Oтчёт по изменениям распродажа.xlsx
+++ b/exchange/output/Oтчёт по изменениям распродажа.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Код</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Розница</t>
   </si>
   <si>
-    <t>Датчик движения инфракрасный IS775</t>
-  </si>
-  <si>
     <t>Оболочка алюминиевая взрывозащищенная LTJB-eA-6/2.1</t>
+  </si>
+  <si>
+    <t>OKKO P 38 BL 3000K</t>
+  </si>
+  <si>
+    <t>COPER/T LED 30 W D45 3000K</t>
   </si>
   <si>
     <t>шт</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,60 +447,89 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>279069</v>
+        <v>420665</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4911004190</v>
+        <v>2327004830</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>384</v>
+        <v>3336</v>
       </c>
       <c r="F2">
-        <v>986</v>
+        <v>3336</v>
       </c>
       <c r="G2">
-        <v>739.5</v>
+        <v>3336</v>
       </c>
       <c r="H2">
-        <v>576</v>
+        <v>5004</v>
       </c>
       <c r="I2">
-        <v>1065</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>420665</v>
+        <v>427529</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2327004830</v>
+        <v>1235000440</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>3850</v>
+      </c>
+      <c r="F3">
+        <v>5375</v>
+      </c>
+      <c r="G3">
+        <v>5375</v>
+      </c>
+      <c r="H3">
+        <v>5776</v>
+      </c>
+      <c r="I3">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>451291</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>3336</v>
-      </c>
-      <c r="F3">
-        <v>3336</v>
-      </c>
-      <c r="G3">
-        <v>3336</v>
-      </c>
-      <c r="H3">
-        <v>5004</v>
-      </c>
-      <c r="I3">
-        <v>4997</v>
+      <c r="C4">
+        <v>1437000260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1500</v>
+      </c>
+      <c r="F4">
+        <v>1900</v>
+      </c>
+      <c r="G4">
+        <v>1900</v>
+      </c>
+      <c r="H4">
+        <v>2250</v>
+      </c>
+      <c r="I4">
+        <v>2850</v>
       </c>
     </row>
   </sheetData>
